--- a/FRGMYRGD/template_depsipeptides_Fabi_AcFRGMYRGD_HS.xlsx
+++ b/FRGMYRGD/template_depsipeptides_Fabi_AcFRGMYRGD_HS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="10 mM peptide 20 mM EDC"/>
@@ -489,7 +489,7 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="7">
         <v>405</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="7">
         <v>450</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="7">
         <v>495</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="7">
         <v>540</v>
       </c>
@@ -1962,7 +1962,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
